--- a/query_result.xlsx
+++ b/query_result.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>_id</t>
+  </si>
   <si>
     <t>item_name</t>
   </si>
@@ -28,82 +31,64 @@
     <t>raw_materials</t>
   </si>
   <si>
-    <t>Vada Pav</t>
-  </si>
-  <si>
-    <t>Idli</t>
-  </si>
-  <si>
-    <t>Maggi</t>
-  </si>
-  <si>
-    <t>Halwa</t>
-  </si>
-  <si>
-    <t>Dosa</t>
-  </si>
-  <si>
-    <t>Dal Fry</t>
-  </si>
-  <si>
-    <t>Paneer Butter masala</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Vada,Pav</t>
-  </si>
-  <si>
-    <t>Batter,rice</t>
-  </si>
-  <si>
-    <t>Onion,Egg,Maggi</t>
-  </si>
-  <si>
-    <t>Gajar, Sugar</t>
-  </si>
-  <si>
-    <t>Gajar,</t>
-  </si>
-  <si>
-    <t>Batter,Carrot</t>
-  </si>
-  <si>
-    <t>Dal,Masala</t>
-  </si>
-  <si>
-    <t>Paneer,Masala,Butter</t>
+    <t>661c08dba1c072406d3b05ca</t>
+  </si>
+  <si>
+    <t>661d2bc2fc90855cac724a8d</t>
+  </si>
+  <si>
+    <t>661d2be8fc90855cac724a8e</t>
+  </si>
+  <si>
+    <t>661d2c00fc90855cac724a8f</t>
+  </si>
+  <si>
+    <t>661d2c12fc90855cac724a90</t>
+  </si>
+  <si>
+    <t>661d2dc4482d6b2f5d7a2059</t>
+  </si>
+  <si>
+    <t>Margherita Pizza</t>
+  </si>
+  <si>
+    <t>Spaghetti Carbonara</t>
+  </si>
+  <si>
+    <t>Cheeseburger</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <t>Chicken Alfredo Pasta</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>['dough', 'tomato sauce', 'mozzarella cheese', 'basil']</t>
+  </si>
+  <si>
+    <t>['spaghetti', 'bacon', 'eggs', 'Parmesan cheese', 'black pepper']</t>
+  </si>
+  <si>
+    <t>['bun', 'beef patty', 'cheddar cheese', 'lettuce', 'tomato', 'onion', 'pickles', 'ketchup', 'mayonnaise']</t>
+  </si>
+  <si>
+    <t>['romaine lettuce', 'croutons', 'Parmesan cheese', 'Caesar dressing']</t>
+  </si>
+  <si>
+    <t>['fettuccine pasta', 'chicken breast', 'heavy cream', 'Parmesan cheese', 'garlic', 'butter']</t>
+  </si>
+  <si>
+    <t>bun, chicken patty, cheese slice</t>
   </si>
 </sst>
 </file>
@@ -461,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,158 +465,128 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2">
+        <v>9.99</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3">
+        <v>12.99</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4">
+        <v>8.99</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5">
+        <v>7.99</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>14.99</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
